--- a/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint3.xlsx
+++ b/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Sprint3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Documents\9. Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Document\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8EB414-0821-467A-B04B-9DA4B1C58AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD2E30-2ED8-4B92-9A46-C4EA3E2D40A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{93505EF7-68C6-4061-842F-2C4FCA5DBA40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{93505EF7-68C6-4061-842F-2C4FCA5DBA40}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey on Mobile" sheetId="1" r:id="rId1"/>
     <sheet name="Survey (Household) on Web" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="84">
   <si>
     <t>Module Code</t>
   </si>
@@ -102,9 +104,6 @@
   </si>
   <si>
     <t>TC10</t>
-  </si>
-  <si>
-    <t>Check survey</t>
   </si>
   <si>
     <t>1. Take a photo
@@ -157,9 +156,6 @@
     <t>Survey page on Website</t>
   </si>
   <si>
-    <t>Check survey page</t>
-  </si>
-  <si>
     <t>1.Select Province/City
 2. Select District
 3. Select Ward
@@ -171,34 +167,6 @@
 2. Select District
 3. Select Ward
 4. Select Village
-5. Click on "Khai báo" button</t>
-  </si>
-  <si>
-    <t>1.Select Province/City
-2. Unselect District
-3. Select Ward
-4. Select Village
-5. Click on "Khai báo" button</t>
-  </si>
-  <si>
-    <t>1.Select Province/City
-2. Select District
-3. Unselect Ward
-4. Select Village
-5. Click on "Khai báo" button</t>
-  </si>
-  <si>
-    <t>1.Select Province/City
-2. Select District
-3. Select Ward
-4. Unselect Village
-5. Click on "Khai báo" button</t>
-  </si>
-  <si>
-    <t>1.Unselect Province/City
-2. Unselect District
-3. Unselect Ward
-4. Unselect Village
 5. Click on "Khai báo" button</t>
   </si>
   <si>
@@ -215,16 +183,6 @@
     <t>1.Select Province/City
 2. Select District
 3. Select Ward
-4. Enter the invalid latitude
-5. Enter the longtitude
-6. Enter the name of village
-7. Enter the description about craft village
-8. Click on "Khai báo" button</t>
-  </si>
-  <si>
-    <t>1.Select Province/City
-2. Select District
-3. Select Ward
 4. Enter the latitude
 5. Enter the invalid longtitude
 6. Enter the name of village
@@ -331,6 +289,109 @@
   </si>
   <si>
     <t>Enter new data to database</t>
+  </si>
+  <si>
+    <t>Check survey success</t>
+  </si>
+  <si>
+    <t>Declare empty photo</t>
+  </si>
+  <si>
+    <t>Declare empty photo &amp; relevant information</t>
+  </si>
+  <si>
+    <t>Declare empty relevant information</t>
+  </si>
+  <si>
+    <t>Declare a new craft village</t>
+  </si>
+  <si>
+    <t>Declare empty name of craft village</t>
+  </si>
+  <si>
+    <t>Declare empty the description about craft village</t>
+  </si>
+  <si>
+    <t>Check AI detection ability</t>
+  </si>
+  <si>
+    <t>Check AI detection ability &amp; declare empty photo</t>
+  </si>
+  <si>
+    <t>Check AI detection ability, declare empty photo and relevant information</t>
+  </si>
+  <si>
+    <t>Check AI detection ability &amp; declare empty relevant information</t>
+  </si>
+  <si>
+    <t>Check AI detection ability with a new craft village</t>
+  </si>
+  <si>
+    <t>Check AI detection ability with a new craft village &amp; declare empty name of craft village</t>
+  </si>
+  <si>
+    <t>Check AI detection ability with a new craft village &amp; declare empty description about craft village</t>
+  </si>
+  <si>
+    <t>Check survey page success</t>
+  </si>
+  <si>
+    <t>Declare empty Province/City</t>
+  </si>
+  <si>
+    <t>1.Unselect Province/City
+2. Unselect District
+3. Select Ward
+4. Select Village
+5. Click on "Khai báo" button</t>
+  </si>
+  <si>
+    <t>Declare empty Province/City &amp; District</t>
+  </si>
+  <si>
+    <t>Declare empty Province/City, District &amp; Ward</t>
+  </si>
+  <si>
+    <t>1. Unelect Province/City
+2. Unselect District
+3. Unselect Ward
+4. Select Village
+5. Click on "Khai báo" button</t>
+  </si>
+  <si>
+    <t>Declare empty Province/City, District, Ward &amp; Village</t>
+  </si>
+  <si>
+    <t>1. Unselect Province/City
+2. Unselect District
+3. Unselect Ward
+4. Unselect Village
+5. Click on "Khai báo" button</t>
+  </si>
+  <si>
+    <t>Declare a new village success</t>
+  </si>
+  <si>
+    <t>1. Select Province/City
+2. Select District
+3. Select Ward
+4. Enter the invalid latitude
+5. Enter the longtitude
+6. Enter the name of village
+7. Enter the description about craft village
+8. Click on "Khai báo" button</t>
+  </si>
+  <si>
+    <t>Declare invalid latitude</t>
+  </si>
+  <si>
+    <t>Declare invalid longtitude</t>
+  </si>
+  <si>
+    <t>Declare the name of village with special characters</t>
+  </si>
+  <si>
+    <t>Declare empty description about craft village</t>
   </si>
 </sst>
 </file>
@@ -406,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,6 +486,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,58 +811,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F0EDE9-80EE-4E9D-B5E8-996F0BA82848}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -813,7 +877,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -828,7 +892,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -837,7 +901,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -860,21 +924,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
@@ -883,21 +947,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
@@ -906,21 +970,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -929,21 +993,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -952,21 +1016,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -975,21 +1039,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
@@ -998,21 +1062,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
@@ -1021,21 +1085,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
@@ -1044,21 +1108,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
@@ -1067,21 +1131,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
+      <c r="B17" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
@@ -1090,21 +1154,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>4</v>
@@ -1113,21 +1177,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>4</v>
@@ -1136,21 +1200,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
@@ -1159,21 +1223,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>4</v>
@@ -1196,49 +1260,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6790C3-B2EB-4E4E-8772-5A76102F6627}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="57.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="57.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="3"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1249,18 +1313,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1283,21 +1347,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
@@ -1306,21 +1370,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>3</v>
@@ -1329,21 +1393,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -1352,21 +1416,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -1375,21 +1439,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -1398,21 +1462,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
@@ -1421,21 +1485,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
@@ -1444,21 +1508,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
@@ -1467,21 +1531,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="134.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
+      <c r="B16" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -1490,21 +1554,21 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="132" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>3</v>
@@ -1513,46 +1577,23 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="5">
-        <v>44851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
